--- a/generated_output/output_condenas_menores.xlsx
+++ b/generated_output/output_condenas_menores.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,32 +417,30 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Total</t>
-        </is>
+      <c r="B2" t="n">
+        <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>2911</v>
+        <v>620</v>
       </c>
       <c r="D2" t="n">
-        <v>2824</v>
+        <v>538</v>
       </c>
       <c r="E2" t="n">
-        <v>2582</v>
+        <v>496</v>
       </c>
       <c r="F2" t="n">
-        <v>2840</v>
+        <v>496</v>
       </c>
       <c r="G2" t="n">
-        <v>2901</v>
+        <v>526</v>
       </c>
       <c r="H2" t="n">
-        <v>2756</v>
+        <v>456</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Total</t>
+          <t xml:space="preserve">    Española</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -456,29 +454,29 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>681</v>
+        <v>640</v>
       </c>
       <c r="D3" t="n">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="E3" t="n">
-        <v>550</v>
+        <v>583</v>
       </c>
       <c r="F3" t="n">
-        <v>562</v>
+        <v>637</v>
       </c>
       <c r="G3" t="n">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H3" t="n">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Total</t>
+          <t xml:space="preserve">    Española</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -492,29 +490,29 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>729</v>
+        <v>705</v>
       </c>
       <c r="D4" t="n">
-        <v>760</v>
+        <v>683</v>
       </c>
       <c r="E4" t="n">
-        <v>675</v>
+        <v>617</v>
       </c>
       <c r="F4" t="n">
-        <v>712</v>
+        <v>683</v>
       </c>
       <c r="G4" t="n">
-        <v>710</v>
+        <v>672</v>
       </c>
       <c r="H4" t="n">
-        <v>696</v>
+        <v>642</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Total</t>
+          <t xml:space="preserve">    Española</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -528,29 +526,29 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>794</v>
+        <v>630</v>
       </c>
       <c r="D5" t="n">
-        <v>786</v>
+        <v>587</v>
       </c>
       <c r="E5" t="n">
-        <v>705</v>
+        <v>544</v>
       </c>
       <c r="F5" t="n">
-        <v>786</v>
+        <v>654</v>
       </c>
       <c r="G5" t="n">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="H5" t="n">
-        <v>757</v>
+        <v>622</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Total</t>
+          <t xml:space="preserve">    Española</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -564,29 +562,29 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>707</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>671</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>652</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
-        <v>780</v>
+        <v>34</v>
       </c>
       <c r="G6" t="n">
-        <v>777</v>
+        <v>34</v>
       </c>
       <c r="H6" t="n">
-        <v>753</v>
+        <v>37</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Total</t>
+          <t xml:space="preserve">    País de la Unión Europea sin España</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -599,32 +597,30 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Total</t>
-        </is>
+      <c r="B7" t="n">
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>2595</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>2485</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>2240</v>
+        <v>41</v>
       </c>
       <c r="F7" t="n">
-        <v>2470</v>
+        <v>29</v>
       </c>
       <c r="G7" t="n">
-        <v>2449</v>
+        <v>39</v>
       </c>
       <c r="H7" t="n">
-        <v>2310</v>
+        <v>31</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Española</t>
+          <t xml:space="preserve">    País de la Unión Europea sin España</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -638,29 +634,29 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>620</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>538</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>496</v>
+        <v>39</v>
       </c>
       <c r="F8" t="n">
-        <v>496</v>
+        <v>33</v>
       </c>
       <c r="G8" t="n">
-        <v>526</v>
+        <v>40</v>
       </c>
       <c r="H8" t="n">
-        <v>456</v>
+        <v>32</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Española</t>
+          <t xml:space="preserve">    País de la Unión Europea sin España</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -674,29 +670,29 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>640</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>677</v>
+        <v>35</v>
       </c>
       <c r="E9" t="n">
-        <v>583</v>
+        <v>31</v>
       </c>
       <c r="F9" t="n">
-        <v>637</v>
+        <v>43</v>
       </c>
       <c r="G9" t="n">
-        <v>611</v>
+        <v>47</v>
       </c>
       <c r="H9" t="n">
-        <v>590</v>
+        <v>46</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Española</t>
+          <t xml:space="preserve">    País de la Unión Europea sin España</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -710,29 +706,29 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>705</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>683</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>617</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>683</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>672</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>642</v>
+        <v>4</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Española</t>
+          <t xml:space="preserve">    País del resto de Europa</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -746,29 +742,29 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>630</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>587</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>544</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>654</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>640</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>622</v>
+        <v>7</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Española</t>
+          <t xml:space="preserve">    País del resto de Europa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -781,32 +777,30 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Total</t>
-        </is>
+      <c r="B12" t="n">
+        <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País de la Unión Europea sin España</t>
+          <t xml:space="preserve">    País del resto de Europa</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -820,29 +814,29 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País de la Unión Europea sin España</t>
+          <t xml:space="preserve">    País del resto de Europa</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -856,29 +850,29 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H14" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País de la Unión Europea sin España</t>
+          <t xml:space="preserve">    País de Africa</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -892,29 +886,29 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E15" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="H15" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País de la Unión Europea sin España</t>
+          <t xml:space="preserve">    País de Africa</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -928,29 +922,29 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="H16" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País de la Unión Europea sin España</t>
+          <t xml:space="preserve">    País de Africa</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -963,32 +957,30 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Total</t>
-        </is>
+      <c r="B17" t="n">
+        <v>17</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F17" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País del resto de Europa</t>
+          <t xml:space="preserve">    País de Africa</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1005,26 +997,26 @@
         <v>14</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País del resto de Europa</t>
+          <t xml:space="preserve">    De América</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1041,26 +1033,26 @@
         <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País del resto de Europa</t>
+          <t xml:space="preserve">    De América</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1077,26 +1069,26 @@
         <v>16</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="G20" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País del resto de Europa</t>
+          <t xml:space="preserve">    De América</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1113,26 +1105,26 @@
         <v>17</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F21" t="n">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País del resto de Europa</t>
+          <t xml:space="preserve">    De América</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1145,32 +1137,30 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Total</t>
-        </is>
+      <c r="B22" t="n">
+        <v>14</v>
       </c>
       <c r="C22" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País de Africa</t>
+          <t xml:space="preserve">    De Asia</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1184,29 +1174,29 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País de Africa</t>
+          <t xml:space="preserve">    De Asia</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1220,29 +1210,29 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País de Africa</t>
+          <t xml:space="preserve">    De Asia</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1256,29 +1246,29 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País de Africa</t>
+          <t xml:space="preserve">    De Asia</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1292,29 +1282,29 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País de Africa</t>
+          <t xml:space="preserve">    De Oceanía</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1327,32 +1317,30 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Total</t>
-        </is>
+      <c r="B27" t="n">
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">    De América</t>
+          <t xml:space="preserve">    De Oceanía</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1366,29 +1354,29 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C28" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">    De América</t>
+          <t xml:space="preserve">    De Oceanía</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1402,29 +1390,29 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C29" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">    De América</t>
+          <t xml:space="preserve">    De Oceanía</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1438,34 +1426,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30" t="n">
-        <v>28</v>
+        <v>1612</v>
       </c>
       <c r="D30" t="n">
-        <v>29</v>
+        <v>1494</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>1398</v>
       </c>
       <c r="F30" t="n">
-        <v>48</v>
+        <v>1560</v>
       </c>
       <c r="G30" t="n">
-        <v>60</v>
+        <v>1566</v>
       </c>
       <c r="H30" t="n">
-        <v>55</v>
+        <v>1430</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">    De América</t>
+          <t xml:space="preserve">    Española</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>mujer</t>
+          <t>hombre</t>
         </is>
       </c>
     </row>
@@ -1474,34 +1462,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>26</v>
+        <v>1898</v>
       </c>
       <c r="D31" t="n">
-        <v>29</v>
+        <v>2000</v>
       </c>
       <c r="E31" t="n">
-        <v>33</v>
+        <v>1950</v>
       </c>
       <c r="F31" t="n">
-        <v>54</v>
+        <v>1978</v>
       </c>
       <c r="G31" t="n">
-        <v>61</v>
+        <v>2089</v>
       </c>
       <c r="H31" t="n">
-        <v>46</v>
+        <v>1974</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">    De América</t>
+          <t xml:space="preserve">    Española</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>mujer</t>
+          <t>hombre</t>
         </is>
       </c>
     </row>
@@ -1509,37 +1497,35 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Total</t>
-        </is>
+      <c r="B32" t="n">
+        <v>16</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2456</v>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>2400</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2296</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>2352</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>2575</v>
       </c>
       <c r="H32" t="n">
-        <v>5</v>
+        <v>2537</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">    De Asia</t>
+          <t xml:space="preserve">    Española</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>mujer</t>
+          <t>hombre</t>
         </is>
       </c>
     </row>
@@ -1548,34 +1534,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>2601</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>2614</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>2456</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>2768</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>3085</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2961</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">    De Asia</t>
+          <t xml:space="preserve">    Española</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>mujer</t>
+          <t>hombre</t>
         </is>
       </c>
     </row>
@@ -1584,34 +1570,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">    De Asia</t>
+          <t xml:space="preserve">    País de la Unión Europea sin España</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>mujer</t>
+          <t>hombre</t>
         </is>
       </c>
     </row>
@@ -1620,34 +1606,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">    De Asia</t>
+          <t xml:space="preserve">    País de la Unión Europea sin España</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>mujer</t>
+          <t>hombre</t>
         </is>
       </c>
     </row>
@@ -1656,34 +1642,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">    De Asia</t>
+          <t xml:space="preserve">    País de la Unión Europea sin España</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>mujer</t>
+          <t>hombre</t>
         </is>
       </c>
     </row>
@@ -1691,37 +1677,35 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Total</t>
-        </is>
+      <c r="B37" t="n">
+        <v>17</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">    De Oceanía</t>
+          <t xml:space="preserve">    País de la Unión Europea sin España</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>mujer</t>
+          <t>hombre</t>
         </is>
       </c>
     </row>
@@ -1733,31 +1717,31 @@
         <v>14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">    De Oceanía</t>
+          <t xml:space="preserve">    País del resto de Europa</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>mujer</t>
+          <t>hombre</t>
         </is>
       </c>
     </row>
@@ -1769,31 +1753,31 @@
         <v>15</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">    De Oceanía</t>
+          <t xml:space="preserve">    País del resto de Europa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>mujer</t>
+          <t>hombre</t>
         </is>
       </c>
     </row>
@@ -1805,31 +1789,31 @@
         <v>16</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">    De Oceanía</t>
+          <t xml:space="preserve">    País del resto de Europa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>mujer</t>
+          <t>hombre</t>
         </is>
       </c>
     </row>
@@ -1841,31 +1825,31 @@
         <v>17</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve">    De Oceanía</t>
+          <t xml:space="preserve">    País del resto de Europa</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>mujer</t>
+          <t>hombre</t>
         </is>
       </c>
     </row>
@@ -1873,32 +1857,30 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Total</t>
-        </is>
+      <c r="B42" t="n">
+        <v>14</v>
       </c>
       <c r="C42" t="n">
-        <v>10753</v>
+        <v>137</v>
       </c>
       <c r="D42" t="n">
-        <v>10819</v>
+        <v>170</v>
       </c>
       <c r="E42" t="n">
-        <v>10346</v>
+        <v>134</v>
       </c>
       <c r="F42" t="n">
-        <v>11141</v>
+        <v>117</v>
       </c>
       <c r="G42" t="n">
-        <v>12147</v>
+        <v>157</v>
       </c>
       <c r="H42" t="n">
-        <v>11988</v>
+        <v>154</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Total</t>
+          <t xml:space="preserve">    País de Africa</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1912,29 +1894,29 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C43" t="n">
-        <v>1899</v>
+        <v>256</v>
       </c>
       <c r="D43" t="n">
-        <v>1816</v>
+        <v>235</v>
       </c>
       <c r="E43" t="n">
-        <v>1712</v>
+        <v>229</v>
       </c>
       <c r="F43" t="n">
-        <v>1878</v>
+        <v>222</v>
       </c>
       <c r="G43" t="n">
-        <v>1944</v>
+        <v>237</v>
       </c>
       <c r="H43" t="n">
-        <v>1853</v>
+        <v>263</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Total</t>
+          <t xml:space="preserve">    País de Africa</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -1948,29 +1930,29 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C44" t="n">
-        <v>2351</v>
+        <v>355</v>
       </c>
       <c r="D44" t="n">
-        <v>2457</v>
+        <v>375</v>
       </c>
       <c r="E44" t="n">
-        <v>2444</v>
+        <v>342</v>
       </c>
       <c r="F44" t="n">
-        <v>2494</v>
+        <v>376</v>
       </c>
       <c r="G44" t="n">
-        <v>2706</v>
+        <v>379</v>
       </c>
       <c r="H44" t="n">
-        <v>2627</v>
+        <v>387</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Total</t>
+          <t xml:space="preserve">    País de Africa</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -1984,29 +1966,29 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C45" t="n">
-        <v>3119</v>
+        <v>475</v>
       </c>
       <c r="D45" t="n">
-        <v>3125</v>
+        <v>409</v>
       </c>
       <c r="E45" t="n">
-        <v>2935</v>
+        <v>386</v>
       </c>
       <c r="F45" t="n">
-        <v>3143</v>
+        <v>380</v>
       </c>
       <c r="G45" t="n">
-        <v>3423</v>
+        <v>448</v>
       </c>
       <c r="H45" t="n">
-        <v>3462</v>
+        <v>473</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Total</t>
+          <t xml:space="preserve">    País de Africa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2020,29 +2002,29 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C46" t="n">
-        <v>3384</v>
+        <v>46</v>
       </c>
       <c r="D46" t="n">
-        <v>3421</v>
+        <v>54</v>
       </c>
       <c r="E46" t="n">
-        <v>3255</v>
+        <v>62</v>
       </c>
       <c r="F46" t="n">
-        <v>3626</v>
+        <v>81</v>
       </c>
       <c r="G46" t="n">
-        <v>4074</v>
+        <v>102</v>
       </c>
       <c r="H46" t="n">
-        <v>4046</v>
+        <v>146</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Total</t>
+          <t xml:space="preserve">    De América</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2055,32 +2037,30 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Total</t>
-        </is>
+      <c r="B47" t="n">
+        <v>15</v>
       </c>
       <c r="C47" t="n">
-        <v>8567</v>
+        <v>75</v>
       </c>
       <c r="D47" t="n">
-        <v>8508</v>
+        <v>104</v>
       </c>
       <c r="E47" t="n">
-        <v>8100</v>
+        <v>122</v>
       </c>
       <c r="F47" t="n">
-        <v>8658</v>
+        <v>136</v>
       </c>
       <c r="G47" t="n">
-        <v>9315</v>
+        <v>189</v>
       </c>
       <c r="H47" t="n">
-        <v>8902</v>
+        <v>230</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Española</t>
+          <t xml:space="preserve">    De América</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2094,29 +2074,29 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C48" t="n">
-        <v>1612</v>
+        <v>146</v>
       </c>
       <c r="D48" t="n">
-        <v>1494</v>
+        <v>148</v>
       </c>
       <c r="E48" t="n">
-        <v>1398</v>
+        <v>152</v>
       </c>
       <c r="F48" t="n">
-        <v>1560</v>
+        <v>224</v>
       </c>
       <c r="G48" t="n">
-        <v>1566</v>
+        <v>279</v>
       </c>
       <c r="H48" t="n">
-        <v>1430</v>
+        <v>338</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Española</t>
+          <t xml:space="preserve">    De América</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2130,29 +2110,29 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C49" t="n">
-        <v>1898</v>
+        <v>169</v>
       </c>
       <c r="D49" t="n">
-        <v>2000</v>
+        <v>212</v>
       </c>
       <c r="E49" t="n">
-        <v>1950</v>
+        <v>208</v>
       </c>
       <c r="F49" t="n">
-        <v>1978</v>
+        <v>271</v>
       </c>
       <c r="G49" t="n">
-        <v>2089</v>
+        <v>342</v>
       </c>
       <c r="H49" t="n">
-        <v>1974</v>
+        <v>401</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Española</t>
+          <t xml:space="preserve">    De América</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2166,29 +2146,29 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C50" t="n">
-        <v>2456</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>2400</v>
+        <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>2296</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>2352</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>2575</v>
+        <v>5</v>
       </c>
       <c r="H50" t="n">
-        <v>2537</v>
+        <v>7</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Española</t>
+          <t xml:space="preserve">    De Asia</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2202,29 +2182,29 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n">
-        <v>2601</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>2614</v>
+        <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>2456</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>2768</v>
+        <v>6</v>
       </c>
       <c r="G51" t="n">
-        <v>3085</v>
+        <v>9</v>
       </c>
       <c r="H51" t="n">
-        <v>2961</v>
+        <v>6</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Española</t>
+          <t xml:space="preserve">    De Asia</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2237,32 +2217,30 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Total</t>
-        </is>
+      <c r="B52" t="n">
+        <v>16</v>
       </c>
       <c r="C52" t="n">
-        <v>452</v>
+        <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>500</v>
+        <v>17</v>
       </c>
       <c r="E52" t="n">
-        <v>529</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>604</v>
+        <v>9</v>
       </c>
       <c r="G52" t="n">
-        <v>580</v>
+        <v>8</v>
       </c>
       <c r="H52" t="n">
-        <v>599</v>
+        <v>12</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País de la Unión Europea sin España</t>
+          <t xml:space="preserve">    De Asia</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2276,29 +2254,29 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C53" t="n">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D53" t="n">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E53" t="n">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="G53" t="n">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="H53" t="n">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País de la Unión Europea sin España</t>
+          <t xml:space="preserve">    De Asia</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2312,29 +2290,29 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País de la Unión Europea sin España</t>
+          <t xml:space="preserve">    De Oceanía</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2348,29 +2326,29 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País de la Unión Europea sin España</t>
+          <t xml:space="preserve">    De Oceanía</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2384,29 +2362,29 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País de la Unión Europea sin España</t>
+          <t xml:space="preserve">    De Oceanía</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2419,907 +2397,33 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Total</t>
-        </is>
+      <c r="B57" t="n">
+        <v>17</v>
       </c>
       <c r="C57" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">    País del resto de Europa</t>
+          <t xml:space="preserve">    De Oceanía</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>14</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13</v>
-      </c>
-      <c r="D58" t="n">
-        <v>6</v>
-      </c>
-      <c r="E58" t="n">
-        <v>9</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4</v>
-      </c>
-      <c r="G58" t="n">
-        <v>13</v>
-      </c>
-      <c r="H58" t="n">
-        <v>6</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    País del resto de Europa</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>15</v>
-      </c>
-      <c r="C59" t="n">
-        <v>9</v>
-      </c>
-      <c r="D59" t="n">
-        <v>8</v>
-      </c>
-      <c r="E59" t="n">
-        <v>10</v>
-      </c>
-      <c r="F59" t="n">
-        <v>9</v>
-      </c>
-      <c r="G59" t="n">
-        <v>18</v>
-      </c>
-      <c r="H59" t="n">
-        <v>18</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    País del resto de Europa</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>16</v>
-      </c>
-      <c r="C60" t="n">
-        <v>11</v>
-      </c>
-      <c r="D60" t="n">
-        <v>16</v>
-      </c>
-      <c r="E60" t="n">
-        <v>9</v>
-      </c>
-      <c r="F60" t="n">
-        <v>18</v>
-      </c>
-      <c r="G60" t="n">
-        <v>23</v>
-      </c>
-      <c r="H60" t="n">
-        <v>17</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    País del resto de Europa</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>17</v>
-      </c>
-      <c r="C61" t="n">
-        <v>19</v>
-      </c>
-      <c r="D61" t="n">
-        <v>26</v>
-      </c>
-      <c r="E61" t="n">
-        <v>28</v>
-      </c>
-      <c r="F61" t="n">
-        <v>17</v>
-      </c>
-      <c r="G61" t="n">
-        <v>32</v>
-      </c>
-      <c r="H61" t="n">
-        <v>19</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    País del resto de Europa</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Total</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>1223</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1189</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1091</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1095</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1221</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1277</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    País de Africa</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>14</v>
-      </c>
-      <c r="C63" t="n">
-        <v>137</v>
-      </c>
-      <c r="D63" t="n">
-        <v>170</v>
-      </c>
-      <c r="E63" t="n">
-        <v>134</v>
-      </c>
-      <c r="F63" t="n">
-        <v>117</v>
-      </c>
-      <c r="G63" t="n">
-        <v>157</v>
-      </c>
-      <c r="H63" t="n">
-        <v>154</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    País de Africa</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>15</v>
-      </c>
-      <c r="C64" t="n">
-        <v>256</v>
-      </c>
-      <c r="D64" t="n">
-        <v>235</v>
-      </c>
-      <c r="E64" t="n">
-        <v>229</v>
-      </c>
-      <c r="F64" t="n">
-        <v>222</v>
-      </c>
-      <c r="G64" t="n">
-        <v>237</v>
-      </c>
-      <c r="H64" t="n">
-        <v>263</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    País de Africa</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>16</v>
-      </c>
-      <c r="C65" t="n">
-        <v>355</v>
-      </c>
-      <c r="D65" t="n">
-        <v>375</v>
-      </c>
-      <c r="E65" t="n">
-        <v>342</v>
-      </c>
-      <c r="F65" t="n">
-        <v>376</v>
-      </c>
-      <c r="G65" t="n">
-        <v>379</v>
-      </c>
-      <c r="H65" t="n">
-        <v>387</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    País de Africa</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>17</v>
-      </c>
-      <c r="C66" t="n">
-        <v>475</v>
-      </c>
-      <c r="D66" t="n">
-        <v>409</v>
-      </c>
-      <c r="E66" t="n">
-        <v>386</v>
-      </c>
-      <c r="F66" t="n">
-        <v>380</v>
-      </c>
-      <c r="G66" t="n">
-        <v>448</v>
-      </c>
-      <c r="H66" t="n">
-        <v>473</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    País de Africa</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Total</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>436</v>
-      </c>
-      <c r="D67" t="n">
-        <v>518</v>
-      </c>
-      <c r="E67" t="n">
-        <v>544</v>
-      </c>
-      <c r="F67" t="n">
-        <v>712</v>
-      </c>
-      <c r="G67" t="n">
-        <v>912</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1115</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    De América</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>14</v>
-      </c>
-      <c r="C68" t="n">
-        <v>46</v>
-      </c>
-      <c r="D68" t="n">
-        <v>54</v>
-      </c>
-      <c r="E68" t="n">
-        <v>62</v>
-      </c>
-      <c r="F68" t="n">
-        <v>81</v>
-      </c>
-      <c r="G68" t="n">
-        <v>102</v>
-      </c>
-      <c r="H68" t="n">
-        <v>146</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    De América</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>15</v>
-      </c>
-      <c r="C69" t="n">
-        <v>75</v>
-      </c>
-      <c r="D69" t="n">
-        <v>104</v>
-      </c>
-      <c r="E69" t="n">
-        <v>122</v>
-      </c>
-      <c r="F69" t="n">
-        <v>136</v>
-      </c>
-      <c r="G69" t="n">
-        <v>189</v>
-      </c>
-      <c r="H69" t="n">
-        <v>230</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    De América</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>16</v>
-      </c>
-      <c r="C70" t="n">
-        <v>146</v>
-      </c>
-      <c r="D70" t="n">
-        <v>148</v>
-      </c>
-      <c r="E70" t="n">
-        <v>152</v>
-      </c>
-      <c r="F70" t="n">
-        <v>224</v>
-      </c>
-      <c r="G70" t="n">
-        <v>279</v>
-      </c>
-      <c r="H70" t="n">
-        <v>338</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    De América</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>17</v>
-      </c>
-      <c r="C71" t="n">
-        <v>169</v>
-      </c>
-      <c r="D71" t="n">
-        <v>212</v>
-      </c>
-      <c r="E71" t="n">
-        <v>208</v>
-      </c>
-      <c r="F71" t="n">
-        <v>271</v>
-      </c>
-      <c r="G71" t="n">
-        <v>342</v>
-      </c>
-      <c r="H71" t="n">
-        <v>401</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    De América</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Total</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>22</v>
-      </c>
-      <c r="D72" t="n">
-        <v>46</v>
-      </c>
-      <c r="E72" t="n">
-        <v>26</v>
-      </c>
-      <c r="F72" t="n">
-        <v>23</v>
-      </c>
-      <c r="G72" t="n">
-        <v>33</v>
-      </c>
-      <c r="H72" t="n">
-        <v>33</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    De Asia</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>14</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" t="n">
-        <v>10</v>
-      </c>
-      <c r="E73" t="n">
-        <v>4</v>
-      </c>
-      <c r="F73" t="n">
-        <v>2</v>
-      </c>
-      <c r="G73" t="n">
-        <v>5</v>
-      </c>
-      <c r="H73" t="n">
-        <v>7</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    De Asia</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>15</v>
-      </c>
-      <c r="C74" t="n">
-        <v>4</v>
-      </c>
-      <c r="D74" t="n">
-        <v>7</v>
-      </c>
-      <c r="E74" t="n">
-        <v>7</v>
-      </c>
-      <c r="F74" t="n">
-        <v>6</v>
-      </c>
-      <c r="G74" t="n">
-        <v>9</v>
-      </c>
-      <c r="H74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    De Asia</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>16</v>
-      </c>
-      <c r="C75" t="n">
-        <v>8</v>
-      </c>
-      <c r="D75" t="n">
-        <v>17</v>
-      </c>
-      <c r="E75" t="n">
-        <v>10</v>
-      </c>
-      <c r="F75" t="n">
-        <v>9</v>
-      </c>
-      <c r="G75" t="n">
-        <v>8</v>
-      </c>
-      <c r="H75" t="n">
-        <v>12</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    De Asia</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>17</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9</v>
-      </c>
-      <c r="D76" t="n">
-        <v>12</v>
-      </c>
-      <c r="E76" t="n">
-        <v>5</v>
-      </c>
-      <c r="F76" t="n">
-        <v>6</v>
-      </c>
-      <c r="G76" t="n">
-        <v>11</v>
-      </c>
-      <c r="H76" t="n">
-        <v>8</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    De Asia</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Total</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D77" t="n">
-        <v>2</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    De Oceanía</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>14</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    De Oceanía</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>15</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    De Oceanía</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>16</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    De Oceanía</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>17</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    De Oceanía</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
         <is>
           <t>hombre</t>
         </is>

--- a/generated_output/output_condenas_menores.xlsx
+++ b/generated_output/output_condenas_menores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -9130,6 +9130,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/generated_output/output_condenas_menores.xlsx
+++ b/generated_output/output_condenas_menores.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F337"/>
+  <dimension ref="A1:G337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -392,6 +392,11 @@
           <t>Menores_condenados</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>porc_menores_condenados</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -418,6 +423,9 @@
       <c r="F2" t="n">
         <v>620</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.7380249500047614</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -444,6 +452,9 @@
       <c r="F3" t="n">
         <v>640</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.7618322064565279</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -470,6 +481,9 @@
       <c r="F4" t="n">
         <v>705</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.839205789924769</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -496,6 +510,9 @@
       <c r="F5" t="n">
         <v>630</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.7499285782306446</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -522,6 +539,9 @@
       <c r="F6" t="n">
         <v>24</v>
       </c>
+      <c r="G6" t="n">
+        <v>0.0285687077421198</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -548,6 +568,9 @@
       <c r="F7" t="n">
         <v>37</v>
       </c>
+      <c r="G7" t="n">
+        <v>0.04404342443576802</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -574,6 +597,9 @@
       <c r="F8" t="n">
         <v>34</v>
       </c>
+      <c r="G8" t="n">
+        <v>0.04047233596800304</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -600,6 +626,9 @@
       <c r="F9" t="n">
         <v>21</v>
       </c>
+      <c r="G9" t="n">
+        <v>0.02499761927435482</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -626,6 +655,9 @@
       <c r="F10" t="n">
         <v>1</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -652,6 +684,9 @@
       <c r="F11" t="n">
         <v>1</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -678,6 +713,9 @@
       <c r="F12" t="n">
         <v>5</v>
       </c>
+      <c r="G12" t="n">
+        <v>0.005951814112941625</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -704,6 +742,9 @@
       <c r="F13" t="n">
         <v>3</v>
       </c>
+      <c r="G13" t="n">
+        <v>0.003571088467764975</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -730,6 +771,9 @@
       <c r="F14" t="n">
         <v>21</v>
       </c>
+      <c r="G14" t="n">
+        <v>0.02499761927435482</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -756,6 +800,9 @@
       <c r="F15" t="n">
         <v>20</v>
       </c>
+      <c r="G15" t="n">
+        <v>0.0238072564517665</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -782,6 +829,9 @@
       <c r="F16" t="n">
         <v>22</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.02618798209694315</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -808,6 +858,9 @@
       <c r="F17" t="n">
         <v>27</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.03213979620988477</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -834,6 +887,9 @@
       <c r="F18" t="n">
         <v>14</v>
       </c>
+      <c r="G18" t="n">
+        <v>0.01666507951623655</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -860,6 +916,9 @@
       <c r="F19" t="n">
         <v>29</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.03452052185506142</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -886,6 +945,9 @@
       <c r="F20" t="n">
         <v>28</v>
       </c>
+      <c r="G20" t="n">
+        <v>0.0333301590324731</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -912,6 +974,9 @@
       <c r="F21" t="n">
         <v>26</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.03094943338729645</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -938,6 +1003,9 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
+      <c r="G22" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -964,6 +1032,9 @@
       <c r="F23" t="n">
         <v>2</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.00238072564517665</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -990,6 +1061,9 @@
       <c r="F24" t="n">
         <v>0</v>
       </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1016,6 +1090,9 @@
       <c r="F25" t="n">
         <v>0</v>
       </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1042,6 +1119,9 @@
       <c r="F26" t="n">
         <v>0</v>
       </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1068,6 +1148,9 @@
       <c r="F27" t="n">
         <v>0</v>
       </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1094,6 +1177,9 @@
       <c r="F28" t="n">
         <v>0</v>
       </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1120,6 +1206,9 @@
       <c r="F29" t="n">
         <v>0</v>
       </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1146,6 +1235,9 @@
       <c r="F30" t="n">
         <v>1612</v>
       </c>
+      <c r="G30" t="n">
+        <v>1.91886487001238</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1172,6 +1264,9 @@
       <c r="F31" t="n">
         <v>1898</v>
       </c>
+      <c r="G31" t="n">
+        <v>2.259308637272641</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1198,6 +1293,9 @@
       <c r="F32" t="n">
         <v>2456</v>
       </c>
+      <c r="G32" t="n">
+        <v>2.923531092276926</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1224,6 +1322,9 @@
       <c r="F33" t="n">
         <v>2601</v>
       </c>
+      <c r="G33" t="n">
+        <v>3.096133701552233</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1250,6 +1351,9 @@
       <c r="F34" t="n">
         <v>90</v>
       </c>
+      <c r="G34" t="n">
+        <v>0.1071326540329492</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1276,6 +1380,9 @@
       <c r="F35" t="n">
         <v>109</v>
       </c>
+      <c r="G35" t="n">
+        <v>0.1297495476621274</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1302,6 +1409,9 @@
       <c r="F36" t="n">
         <v>143</v>
       </c>
+      <c r="G36" t="n">
+        <v>0.1702218836301305</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1328,6 +1438,9 @@
       <c r="F37" t="n">
         <v>110</v>
       </c>
+      <c r="G37" t="n">
+        <v>0.1309399104847157</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1354,6 +1467,9 @@
       <c r="F38" t="n">
         <v>13</v>
       </c>
+      <c r="G38" t="n">
+        <v>0.01547471669364823</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1380,6 +1496,9 @@
       <c r="F39" t="n">
         <v>9</v>
       </c>
+      <c r="G39" t="n">
+        <v>0.01071326540329492</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1406,6 +1525,9 @@
       <c r="F40" t="n">
         <v>11</v>
       </c>
+      <c r="G40" t="n">
+        <v>0.01309399104847157</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1432,6 +1554,9 @@
       <c r="F41" t="n">
         <v>19</v>
       </c>
+      <c r="G41" t="n">
+        <v>0.02261689362917817</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1458,6 +1583,9 @@
       <c r="F42" t="n">
         <v>137</v>
       </c>
+      <c r="G42" t="n">
+        <v>0.1630797066946005</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1484,6 +1612,9 @@
       <c r="F43" t="n">
         <v>256</v>
       </c>
+      <c r="G43" t="n">
+        <v>0.3047328825826112</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1510,6 +1641,9 @@
       <c r="F44" t="n">
         <v>355</v>
       </c>
+      <c r="G44" t="n">
+        <v>0.4225788020188553</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1536,6 +1670,9 @@
       <c r="F45" t="n">
         <v>475</v>
       </c>
+      <c r="G45" t="n">
+        <v>0.5654223407294543</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1562,6 +1699,9 @@
       <c r="F46" t="n">
         <v>46</v>
       </c>
+      <c r="G46" t="n">
+        <v>0.05475668983906294</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1588,6 +1728,9 @@
       <c r="F47" t="n">
         <v>75</v>
       </c>
+      <c r="G47" t="n">
+        <v>0.08927721169412436</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1614,6 +1757,9 @@
       <c r="F48" t="n">
         <v>146</v>
       </c>
+      <c r="G48" t="n">
+        <v>0.1737929720978954</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1640,6 +1786,9 @@
       <c r="F49" t="n">
         <v>169</v>
       </c>
+      <c r="G49" t="n">
+        <v>0.2011713170174269</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1666,6 +1815,9 @@
       <c r="F50" t="n">
         <v>1</v>
       </c>
+      <c r="G50" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1692,6 +1844,9 @@
       <c r="F51" t="n">
         <v>4</v>
       </c>
+      <c r="G51" t="n">
+        <v>0.004761451290353299</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1718,6 +1873,9 @@
       <c r="F52" t="n">
         <v>8</v>
       </c>
+      <c r="G52" t="n">
+        <v>0.009522902580706599</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1744,6 +1902,9 @@
       <c r="F53" t="n">
         <v>9</v>
       </c>
+      <c r="G53" t="n">
+        <v>0.01071326540329492</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1770,6 +1931,9 @@
       <c r="F54" t="n">
         <v>0</v>
       </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1796,6 +1960,9 @@
       <c r="F55" t="n">
         <v>0</v>
       </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1822,6 +1989,9 @@
       <c r="F56" t="n">
         <v>0</v>
       </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1848,6 +2018,9 @@
       <c r="F57" t="n">
         <v>1</v>
       </c>
+      <c r="G57" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1874,6 +2047,9 @@
       <c r="F58" t="n">
         <v>538</v>
       </c>
+      <c r="G58" t="n">
+        <v>0.6404151985525188</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1900,6 +2076,9 @@
       <c r="F59" t="n">
         <v>677</v>
       </c>
+      <c r="G59" t="n">
+        <v>0.8058756308922961</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1926,6 +2105,9 @@
       <c r="F60" t="n">
         <v>683</v>
       </c>
+      <c r="G60" t="n">
+        <v>0.8130178078278258</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1952,6 +2134,9 @@
       <c r="F61" t="n">
         <v>587</v>
       </c>
+      <c r="G61" t="n">
+        <v>0.6987429768593467</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1978,6 +2163,9 @@
       <c r="F62" t="n">
         <v>26</v>
       </c>
+      <c r="G62" t="n">
+        <v>0.03094943338729645</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2192,9 @@
       <c r="F63" t="n">
         <v>33</v>
       </c>
+      <c r="G63" t="n">
+        <v>0.03928197314541472</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2030,6 +2221,9 @@
       <c r="F64" t="n">
         <v>32</v>
       </c>
+      <c r="G64" t="n">
+        <v>0.0380916103228264</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2056,6 +2250,9 @@
       <c r="F65" t="n">
         <v>35</v>
       </c>
+      <c r="G65" t="n">
+        <v>0.04166269879059138</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2082,6 +2279,9 @@
       <c r="F66" t="n">
         <v>2</v>
       </c>
+      <c r="G66" t="n">
+        <v>0.00238072564517665</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2108,6 +2308,9 @@
       <c r="F67" t="n">
         <v>2</v>
       </c>
+      <c r="G67" t="n">
+        <v>0.00238072564517665</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2134,6 +2337,9 @@
       <c r="F68" t="n">
         <v>5</v>
       </c>
+      <c r="G68" t="n">
+        <v>0.005951814112941625</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2160,6 +2366,9 @@
       <c r="F69" t="n">
         <v>4</v>
       </c>
+      <c r="G69" t="n">
+        <v>0.004761451290353299</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2186,6 +2395,9 @@
       <c r="F70" t="n">
         <v>19</v>
       </c>
+      <c r="G70" t="n">
+        <v>0.02261689362917817</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2212,6 +2424,9 @@
       <c r="F71" t="n">
         <v>22</v>
       </c>
+      <c r="G71" t="n">
+        <v>0.02618798209694315</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2238,6 +2453,9 @@
       <c r="F72" t="n">
         <v>33</v>
       </c>
+      <c r="G72" t="n">
+        <v>0.03928197314541472</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2264,6 +2482,9 @@
       <c r="F73" t="n">
         <v>16</v>
       </c>
+      <c r="G73" t="n">
+        <v>0.0190458051614132</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2290,6 +2511,9 @@
       <c r="F74" t="n">
         <v>21</v>
       </c>
+      <c r="G74" t="n">
+        <v>0.02499761927435482</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2316,6 +2540,9 @@
       <c r="F75" t="n">
         <v>25</v>
       </c>
+      <c r="G75" t="n">
+        <v>0.02975907056470812</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2342,6 +2569,9 @@
       <c r="F76" t="n">
         <v>29</v>
       </c>
+      <c r="G76" t="n">
+        <v>0.03452052185506142</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2368,6 +2598,9 @@
       <c r="F77" t="n">
         <v>29</v>
       </c>
+      <c r="G77" t="n">
+        <v>0.03452052185506142</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2394,6 +2627,9 @@
       <c r="F78" t="n">
         <v>1</v>
       </c>
+      <c r="G78" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2420,6 +2656,9 @@
       <c r="F79" t="n">
         <v>1</v>
       </c>
+      <c r="G79" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2446,6 +2685,9 @@
       <c r="F80" t="n">
         <v>4</v>
       </c>
+      <c r="G80" t="n">
+        <v>0.004761451290353299</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2472,6 +2714,9 @@
       <c r="F81" t="n">
         <v>0</v>
       </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2498,6 +2743,9 @@
       <c r="F82" t="n">
         <v>0</v>
       </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2524,6 +2772,9 @@
       <c r="F83" t="n">
         <v>0</v>
       </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2550,6 +2801,9 @@
       <c r="F84" t="n">
         <v>0</v>
       </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2576,6 +2830,9 @@
       <c r="F85" t="n">
         <v>0</v>
       </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2602,6 +2859,9 @@
       <c r="F86" t="n">
         <v>1494</v>
       </c>
+      <c r="G86" t="n">
+        <v>1.778402056946957</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2628,6 +2888,9 @@
       <c r="F87" t="n">
         <v>2000</v>
       </c>
+      <c r="G87" t="n">
+        <v>2.38072564517665</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2654,6 +2917,9 @@
       <c r="F88" t="n">
         <v>2400</v>
       </c>
+      <c r="G88" t="n">
+        <v>2.85687077421198</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2680,6 +2946,9 @@
       <c r="F89" t="n">
         <v>2614</v>
       </c>
+      <c r="G89" t="n">
+        <v>3.111608418245881</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2706,6 +2975,9 @@
       <c r="F90" t="n">
         <v>81</v>
       </c>
+      <c r="G90" t="n">
+        <v>0.09641938862965432</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2732,6 +3004,9 @@
       <c r="F91" t="n">
         <v>103</v>
       </c>
+      <c r="G91" t="n">
+        <v>0.1226073707265975</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2758,6 +3033,9 @@
       <c r="F92" t="n">
         <v>168</v>
       </c>
+      <c r="G92" t="n">
+        <v>0.1999809541948386</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2784,6 +3062,9 @@
       <c r="F93" t="n">
         <v>148</v>
       </c>
+      <c r="G93" t="n">
+        <v>0.1761736977430721</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2810,6 +3091,9 @@
       <c r="F94" t="n">
         <v>6</v>
       </c>
+      <c r="G94" t="n">
+        <v>0.00714217693552995</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2836,6 +3120,9 @@
       <c r="F95" t="n">
         <v>8</v>
       </c>
+      <c r="G95" t="n">
+        <v>0.009522902580706599</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2862,6 +3149,9 @@
       <c r="F96" t="n">
         <v>16</v>
       </c>
+      <c r="G96" t="n">
+        <v>0.0190458051614132</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2888,6 +3178,9 @@
       <c r="F97" t="n">
         <v>26</v>
       </c>
+      <c r="G97" t="n">
+        <v>0.03094943338729645</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2914,6 +3207,9 @@
       <c r="F98" t="n">
         <v>170</v>
       </c>
+      <c r="G98" t="n">
+        <v>0.2023616798400152</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2940,6 +3236,9 @@
       <c r="F99" t="n">
         <v>235</v>
       </c>
+      <c r="G99" t="n">
+        <v>0.2797352633082564</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2966,6 +3265,9 @@
       <c r="F100" t="n">
         <v>375</v>
       </c>
+      <c r="G100" t="n">
+        <v>0.4463860584706218</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2992,6 +3294,9 @@
       <c r="F101" t="n">
         <v>409</v>
       </c>
+      <c r="G101" t="n">
+        <v>0.4868583944386249</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3018,6 +3323,9 @@
       <c r="F102" t="n">
         <v>54</v>
       </c>
+      <c r="G102" t="n">
+        <v>0.06427959241976954</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3044,6 +3352,9 @@
       <c r="F103" t="n">
         <v>104</v>
       </c>
+      <c r="G103" t="n">
+        <v>0.1237977335491858</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3070,6 +3381,9 @@
       <c r="F104" t="n">
         <v>148</v>
       </c>
+      <c r="G104" t="n">
+        <v>0.1761736977430721</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3096,6 +3410,9 @@
       <c r="F105" t="n">
         <v>212</v>
       </c>
+      <c r="G105" t="n">
+        <v>0.2523569183887249</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3122,6 +3439,9 @@
       <c r="F106" t="n">
         <v>10</v>
       </c>
+      <c r="G106" t="n">
+        <v>0.01190362822588325</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3148,6 +3468,9 @@
       <c r="F107" t="n">
         <v>7</v>
       </c>
+      <c r="G107" t="n">
+        <v>0.008332539758118275</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3174,6 +3497,9 @@
       <c r="F108" t="n">
         <v>17</v>
       </c>
+      <c r="G108" t="n">
+        <v>0.02023616798400152</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3200,6 +3526,9 @@
       <c r="F109" t="n">
         <v>12</v>
       </c>
+      <c r="G109" t="n">
+        <v>0.0142843538710599</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3226,6 +3555,9 @@
       <c r="F110" t="n">
         <v>1</v>
       </c>
+      <c r="G110" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3252,6 +3584,9 @@
       <c r="F111" t="n">
         <v>0</v>
       </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3278,6 +3613,9 @@
       <c r="F112" t="n">
         <v>1</v>
       </c>
+      <c r="G112" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3304,6 +3642,9 @@
       <c r="F113" t="n">
         <v>0</v>
       </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3330,6 +3671,9 @@
       <c r="F114" t="n">
         <v>496</v>
       </c>
+      <c r="G114" t="n">
+        <v>0.5904199600038091</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3356,6 +3700,9 @@
       <c r="F115" t="n">
         <v>583</v>
       </c>
+      <c r="G115" t="n">
+        <v>0.6939815255689935</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3382,6 +3729,9 @@
       <c r="F116" t="n">
         <v>617</v>
       </c>
+      <c r="G116" t="n">
+        <v>0.7344538615369964</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3408,6 +3758,9 @@
       <c r="F117" t="n">
         <v>544</v>
       </c>
+      <c r="G117" t="n">
+        <v>0.6475573754880487</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3434,6 +3787,9 @@
       <c r="F118" t="n">
         <v>19</v>
       </c>
+      <c r="G118" t="n">
+        <v>0.02261689362917817</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3460,6 +3816,9 @@
       <c r="F119" t="n">
         <v>41</v>
       </c>
+      <c r="G119" t="n">
+        <v>0.04880487572612132</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3486,6 +3845,9 @@
       <c r="F120" t="n">
         <v>39</v>
       </c>
+      <c r="G120" t="n">
+        <v>0.04642415008094467</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3512,6 +3874,9 @@
       <c r="F121" t="n">
         <v>31</v>
       </c>
+      <c r="G121" t="n">
+        <v>0.03690124750023807</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3538,6 +3903,9 @@
       <c r="F122" t="n">
         <v>4</v>
       </c>
+      <c r="G122" t="n">
+        <v>0.004761451290353299</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3564,6 +3932,9 @@
       <c r="F123" t="n">
         <v>2</v>
       </c>
+      <c r="G123" t="n">
+        <v>0.00238072564517665</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3590,6 +3961,9 @@
       <c r="F124" t="n">
         <v>5</v>
       </c>
+      <c r="G124" t="n">
+        <v>0.005951814112941625</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3616,6 +3990,9 @@
       <c r="F125" t="n">
         <v>7</v>
       </c>
+      <c r="G125" t="n">
+        <v>0.008332539758118275</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3642,6 +4019,9 @@
       <c r="F126" t="n">
         <v>8</v>
       </c>
+      <c r="G126" t="n">
+        <v>0.009522902580706599</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3668,6 +4048,9 @@
       <c r="F127" t="n">
         <v>15</v>
       </c>
+      <c r="G127" t="n">
+        <v>0.01785544233882487</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3694,6 +4077,9 @@
       <c r="F128" t="n">
         <v>14</v>
       </c>
+      <c r="G128" t="n">
+        <v>0.01666507951623655</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3720,6 +4106,9 @@
       <c r="F129" t="n">
         <v>36</v>
       </c>
+      <c r="G129" t="n">
+        <v>0.0428530616131797</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3746,6 +4135,9 @@
       <c r="F130" t="n">
         <v>22</v>
       </c>
+      <c r="G130" t="n">
+        <v>0.02618798209694315</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3772,6 +4164,9 @@
       <c r="F131" t="n">
         <v>33</v>
       </c>
+      <c r="G131" t="n">
+        <v>0.03928197314541472</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3798,6 +4193,9 @@
       <c r="F132" t="n">
         <v>30</v>
       </c>
+      <c r="G132" t="n">
+        <v>0.03571088467764975</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3824,6 +4222,9 @@
       <c r="F133" t="n">
         <v>33</v>
       </c>
+      <c r="G133" t="n">
+        <v>0.03928197314541472</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3850,6 +4251,9 @@
       <c r="F134" t="n">
         <v>1</v>
       </c>
+      <c r="G134" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3876,6 +4280,9 @@
       <c r="F135" t="n">
         <v>1</v>
       </c>
+      <c r="G135" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3902,6 +4309,9 @@
       <c r="F136" t="n">
         <v>0</v>
       </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3928,6 +4338,9 @@
       <c r="F137" t="n">
         <v>1</v>
       </c>
+      <c r="G137" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3954,6 +4367,9 @@
       <c r="F138" t="n">
         <v>0</v>
       </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3980,6 +4396,9 @@
       <c r="F139" t="n">
         <v>0</v>
       </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -4006,6 +4425,9 @@
       <c r="F140" t="n">
         <v>0</v>
       </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -4032,6 +4454,9 @@
       <c r="F141" t="n">
         <v>0</v>
       </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -4058,6 +4483,9 @@
       <c r="F142" t="n">
         <v>1398</v>
       </c>
+      <c r="G142" t="n">
+        <v>1.664127225978478</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4084,6 +4512,9 @@
       <c r="F143" t="n">
         <v>1950</v>
       </c>
+      <c r="G143" t="n">
+        <v>2.321207504047234</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4110,6 +4541,9 @@
       <c r="F144" t="n">
         <v>2296</v>
       </c>
+      <c r="G144" t="n">
+        <v>2.733073040662794</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4136,6 +4570,9 @@
       <c r="F145" t="n">
         <v>2456</v>
       </c>
+      <c r="G145" t="n">
+        <v>2.923531092276926</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4162,6 +4599,9 @@
       <c r="F146" t="n">
         <v>105</v>
       </c>
+      <c r="G146" t="n">
+        <v>0.1249880963717741</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4188,6 +4628,9 @@
       <c r="F147" t="n">
         <v>126</v>
       </c>
+      <c r="G147" t="n">
+        <v>0.1499857156461289</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4214,6 +4657,9 @@
       <c r="F148" t="n">
         <v>126</v>
       </c>
+      <c r="G148" t="n">
+        <v>0.1499857156461289</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4240,6 +4686,9 @@
       <c r="F149" t="n">
         <v>172</v>
       </c>
+      <c r="G149" t="n">
+        <v>0.2047424054851919</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4266,6 +4715,9 @@
       <c r="F150" t="n">
         <v>9</v>
       </c>
+      <c r="G150" t="n">
+        <v>0.01071326540329492</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4292,6 +4744,9 @@
       <c r="F151" t="n">
         <v>10</v>
       </c>
+      <c r="G151" t="n">
+        <v>0.01190362822588325</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4318,6 +4773,9 @@
       <c r="F152" t="n">
         <v>9</v>
       </c>
+      <c r="G152" t="n">
+        <v>0.01071326540329492</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4344,6 +4802,9 @@
       <c r="F153" t="n">
         <v>28</v>
       </c>
+      <c r="G153" t="n">
+        <v>0.0333301590324731</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4370,6 +4831,9 @@
       <c r="F154" t="n">
         <v>134</v>
       </c>
+      <c r="G154" t="n">
+        <v>0.1595086182268355</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4396,6 +4860,9 @@
       <c r="F155" t="n">
         <v>229</v>
       </c>
+      <c r="G155" t="n">
+        <v>0.2725930863727264</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4422,6 +4889,9 @@
       <c r="F156" t="n">
         <v>342</v>
       </c>
+      <c r="G156" t="n">
+        <v>0.4071040853252071</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4448,6 +4918,9 @@
       <c r="F157" t="n">
         <v>386</v>
       </c>
+      <c r="G157" t="n">
+        <v>0.4594800495190934</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4474,6 +4947,9 @@
       <c r="F158" t="n">
         <v>62</v>
       </c>
+      <c r="G158" t="n">
+        <v>0.07380249500047614</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4500,6 +4976,9 @@
       <c r="F159" t="n">
         <v>122</v>
       </c>
+      <c r="G159" t="n">
+        <v>0.1452242643557757</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4526,6 +5005,9 @@
       <c r="F160" t="n">
         <v>152</v>
       </c>
+      <c r="G160" t="n">
+        <v>0.1809351490334254</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4552,6 +5034,9 @@
       <c r="F161" t="n">
         <v>208</v>
       </c>
+      <c r="G161" t="n">
+        <v>0.2475954670983716</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4578,6 +5063,9 @@
       <c r="F162" t="n">
         <v>4</v>
       </c>
+      <c r="G162" t="n">
+        <v>0.004761451290353299</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4604,6 +5092,9 @@
       <c r="F163" t="n">
         <v>7</v>
       </c>
+      <c r="G163" t="n">
+        <v>0.008332539758118275</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4630,6 +5121,9 @@
       <c r="F164" t="n">
         <v>10</v>
       </c>
+      <c r="G164" t="n">
+        <v>0.01190362822588325</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4656,6 +5150,9 @@
       <c r="F165" t="n">
         <v>5</v>
       </c>
+      <c r="G165" t="n">
+        <v>0.005951814112941625</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4682,6 +5179,9 @@
       <c r="F166" t="n">
         <v>0</v>
       </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4708,6 +5208,9 @@
       <c r="F167" t="n">
         <v>0</v>
       </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4734,6 +5237,9 @@
       <c r="F168" t="n">
         <v>0</v>
       </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4760,6 +5266,9 @@
       <c r="F169" t="n">
         <v>0</v>
       </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4786,6 +5295,9 @@
       <c r="F170" t="n">
         <v>496</v>
       </c>
+      <c r="G170" t="n">
+        <v>0.5904199600038091</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4812,6 +5324,9 @@
       <c r="F171" t="n">
         <v>637</v>
       </c>
+      <c r="G171" t="n">
+        <v>0.7582611179887629</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4838,6 +5353,9 @@
       <c r="F172" t="n">
         <v>683</v>
       </c>
+      <c r="G172" t="n">
+        <v>0.8130178078278258</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4864,6 +5382,9 @@
       <c r="F173" t="n">
         <v>654</v>
       </c>
+      <c r="G173" t="n">
+        <v>0.7784972859727646</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4890,6 +5411,9 @@
       <c r="F174" t="n">
         <v>34</v>
       </c>
+      <c r="G174" t="n">
+        <v>0.04047233596800304</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4916,6 +5440,9 @@
       <c r="F175" t="n">
         <v>29</v>
       </c>
+      <c r="G175" t="n">
+        <v>0.03452052185506142</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4942,6 +5469,9 @@
       <c r="F176" t="n">
         <v>33</v>
       </c>
+      <c r="G176" t="n">
+        <v>0.03928197314541472</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4968,6 +5498,9 @@
       <c r="F177" t="n">
         <v>43</v>
       </c>
+      <c r="G177" t="n">
+        <v>0.05118560137129798</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4994,6 +5527,9 @@
       <c r="F178" t="n">
         <v>1</v>
       </c>
+      <c r="G178" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -5020,6 +5556,9 @@
       <c r="F179" t="n">
         <v>4</v>
       </c>
+      <c r="G179" t="n">
+        <v>0.004761451290353299</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -5046,6 +5585,9 @@
       <c r="F180" t="n">
         <v>9</v>
       </c>
+      <c r="G180" t="n">
+        <v>0.01071326540329492</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -5072,6 +5614,9 @@
       <c r="F181" t="n">
         <v>9</v>
       </c>
+      <c r="G181" t="n">
+        <v>0.01071326540329492</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -5098,6 +5643,9 @@
       <c r="F182" t="n">
         <v>5</v>
       </c>
+      <c r="G182" t="n">
+        <v>0.005951814112941625</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5124,6 +5672,9 @@
       <c r="F183" t="n">
         <v>12</v>
       </c>
+      <c r="G183" t="n">
+        <v>0.0142843538710599</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5150,6 +5701,9 @@
       <c r="F184" t="n">
         <v>13</v>
       </c>
+      <c r="G184" t="n">
+        <v>0.01547471669364823</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5176,6 +5730,9 @@
       <c r="F185" t="n">
         <v>19</v>
       </c>
+      <c r="G185" t="n">
+        <v>0.02261689362917817</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -5202,6 +5759,9 @@
       <c r="F186" t="n">
         <v>25</v>
       </c>
+      <c r="G186" t="n">
+        <v>0.02975907056470812</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -5228,6 +5788,9 @@
       <c r="F187" t="n">
         <v>30</v>
       </c>
+      <c r="G187" t="n">
+        <v>0.03571088467764975</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -5254,6 +5817,9 @@
       <c r="F188" t="n">
         <v>48</v>
       </c>
+      <c r="G188" t="n">
+        <v>0.0571374154842396</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -5280,6 +5846,9 @@
       <c r="F189" t="n">
         <v>54</v>
       </c>
+      <c r="G189" t="n">
+        <v>0.06427959241976954</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -5306,6 +5875,9 @@
       <c r="F190" t="n">
         <v>1</v>
       </c>
+      <c r="G190" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -5332,6 +5904,9 @@
       <c r="F191" t="n">
         <v>0</v>
       </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -5358,6 +5933,9 @@
       <c r="F192" t="n">
         <v>0</v>
       </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -5384,6 +5962,9 @@
       <c r="F193" t="n">
         <v>1</v>
       </c>
+      <c r="G193" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -5410,6 +5991,9 @@
       <c r="F194" t="n">
         <v>0</v>
       </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -5436,6 +6020,9 @@
       <c r="F195" t="n">
         <v>0</v>
       </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -5462,6 +6049,9 @@
       <c r="F196" t="n">
         <v>0</v>
       </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -5488,6 +6078,9 @@
       <c r="F197" t="n">
         <v>0</v>
       </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -5514,6 +6107,9 @@
       <c r="F198" t="n">
         <v>1560</v>
       </c>
+      <c r="G198" t="n">
+        <v>1.856966003237787</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -5540,6 +6136,9 @@
       <c r="F199" t="n">
         <v>1978</v>
       </c>
+      <c r="G199" t="n">
+        <v>2.354537663079707</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -5566,6 +6165,9 @@
       <c r="F200" t="n">
         <v>2352</v>
       </c>
+      <c r="G200" t="n">
+        <v>2.79973335872774</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -5592,6 +6194,9 @@
       <c r="F201" t="n">
         <v>2768</v>
       </c>
+      <c r="G201" t="n">
+        <v>3.294924292924483</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5618,6 +6223,9 @@
       <c r="F202" t="n">
         <v>113</v>
       </c>
+      <c r="G202" t="n">
+        <v>0.1345109989524807</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5644,6 +6252,9 @@
       <c r="F203" t="n">
         <v>143</v>
       </c>
+      <c r="G203" t="n">
+        <v>0.1702218836301305</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -5670,6 +6281,9 @@
       <c r="F204" t="n">
         <v>164</v>
       </c>
+      <c r="G204" t="n">
+        <v>0.1952195029044853</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5696,6 +6310,9 @@
       <c r="F205" t="n">
         <v>184</v>
       </c>
+      <c r="G205" t="n">
+        <v>0.2190267593562518</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5722,6 +6339,9 @@
       <c r="F206" t="n">
         <v>4</v>
       </c>
+      <c r="G206" t="n">
+        <v>0.004761451290353299</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5748,6 +6368,9 @@
       <c r="F207" t="n">
         <v>9</v>
       </c>
+      <c r="G207" t="n">
+        <v>0.01071326540329492</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5774,6 +6397,9 @@
       <c r="F208" t="n">
         <v>18</v>
       </c>
+      <c r="G208" t="n">
+        <v>0.02142653080658985</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5800,6 +6426,9 @@
       <c r="F209" t="n">
         <v>17</v>
       </c>
+      <c r="G209" t="n">
+        <v>0.02023616798400152</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -5826,6 +6455,9 @@
       <c r="F210" t="n">
         <v>117</v>
       </c>
+      <c r="G210" t="n">
+        <v>0.139272450242834</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5852,6 +6484,9 @@
       <c r="F211" t="n">
         <v>222</v>
       </c>
+      <c r="G211" t="n">
+        <v>0.2642605466146081</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5878,6 +6513,9 @@
       <c r="F212" t="n">
         <v>376</v>
       </c>
+      <c r="G212" t="n">
+        <v>0.4475764212932102</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5904,6 +6542,9 @@
       <c r="F213" t="n">
         <v>380</v>
       </c>
+      <c r="G213" t="n">
+        <v>0.4523378725835634</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5930,6 +6571,9 @@
       <c r="F214" t="n">
         <v>81</v>
       </c>
+      <c r="G214" t="n">
+        <v>0.09641938862965432</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5956,6 +6600,9 @@
       <c r="F215" t="n">
         <v>136</v>
       </c>
+      <c r="G215" t="n">
+        <v>0.1618893438720122</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5982,6 +6629,9 @@
       <c r="F216" t="n">
         <v>224</v>
       </c>
+      <c r="G216" t="n">
+        <v>0.2666412722597848</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -6008,6 +6658,9 @@
       <c r="F217" t="n">
         <v>271</v>
       </c>
+      <c r="G217" t="n">
+        <v>0.3225883249214361</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -6034,6 +6687,9 @@
       <c r="F218" t="n">
         <v>2</v>
       </c>
+      <c r="G218" t="n">
+        <v>0.00238072564517665</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -6060,6 +6716,9 @@
       <c r="F219" t="n">
         <v>6</v>
       </c>
+      <c r="G219" t="n">
+        <v>0.00714217693552995</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -6086,6 +6745,9 @@
       <c r="F220" t="n">
         <v>9</v>
       </c>
+      <c r="G220" t="n">
+        <v>0.01071326540329492</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -6112,6 +6774,9 @@
       <c r="F221" t="n">
         <v>6</v>
       </c>
+      <c r="G221" t="n">
+        <v>0.00714217693552995</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -6138,6 +6803,9 @@
       <c r="F222" t="n">
         <v>1</v>
       </c>
+      <c r="G222" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6164,6 +6832,9 @@
       <c r="F223" t="n">
         <v>0</v>
       </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -6190,6 +6861,9 @@
       <c r="F224" t="n">
         <v>0</v>
       </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -6216,6 +6890,9 @@
       <c r="F225" t="n">
         <v>0</v>
       </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -6242,6 +6919,9 @@
       <c r="F226" t="n">
         <v>526</v>
       </c>
+      <c r="G226" t="n">
+        <v>0.6261308446814589</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -6268,6 +6948,9 @@
       <c r="F227" t="n">
         <v>611</v>
       </c>
+      <c r="G227" t="n">
+        <v>0.7273116846014666</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -6294,6 +6977,9 @@
       <c r="F228" t="n">
         <v>672</v>
       </c>
+      <c r="G228" t="n">
+        <v>0.7999238167793543</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -6320,6 +7006,9 @@
       <c r="F229" t="n">
         <v>640</v>
       </c>
+      <c r="G229" t="n">
+        <v>0.7618322064565279</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -6346,6 +7035,9 @@
       <c r="F230" t="n">
         <v>34</v>
       </c>
+      <c r="G230" t="n">
+        <v>0.04047233596800304</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -6372,6 +7064,9 @@
       <c r="F231" t="n">
         <v>39</v>
       </c>
+      <c r="G231" t="n">
+        <v>0.04642415008094467</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -6398,6 +7093,9 @@
       <c r="F232" t="n">
         <v>40</v>
       </c>
+      <c r="G232" t="n">
+        <v>0.047614512903533</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -6424,6 +7122,9 @@
       <c r="F233" t="n">
         <v>47</v>
       </c>
+      <c r="G233" t="n">
+        <v>0.05594705266165127</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -6450,6 +7151,9 @@
       <c r="F234" t="n">
         <v>3</v>
       </c>
+      <c r="G234" t="n">
+        <v>0.003571088467764975</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -6476,6 +7180,9 @@
       <c r="F235" t="n">
         <v>5</v>
       </c>
+      <c r="G235" t="n">
+        <v>0.005951814112941625</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -6502,6 +7209,9 @@
       <c r="F236" t="n">
         <v>10</v>
       </c>
+      <c r="G236" t="n">
+        <v>0.01190362822588325</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -6528,6 +7238,9 @@
       <c r="F237" t="n">
         <v>6</v>
       </c>
+      <c r="G237" t="n">
+        <v>0.00714217693552995</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -6554,6 +7267,9 @@
       <c r="F238" t="n">
         <v>19</v>
       </c>
+      <c r="G238" t="n">
+        <v>0.02261689362917817</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -6580,6 +7296,9 @@
       <c r="F239" t="n">
         <v>8</v>
       </c>
+      <c r="G239" t="n">
+        <v>0.009522902580706599</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -6606,6 +7325,9 @@
       <c r="F240" t="n">
         <v>18</v>
       </c>
+      <c r="G240" t="n">
+        <v>0.02142653080658985</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -6632,6 +7354,9 @@
       <c r="F241" t="n">
         <v>22</v>
       </c>
+      <c r="G241" t="n">
+        <v>0.02618798209694315</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -6658,6 +7383,9 @@
       <c r="F242" t="n">
         <v>31</v>
       </c>
+      <c r="G242" t="n">
+        <v>0.03690124750023807</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -6684,6 +7412,9 @@
       <c r="F243" t="n">
         <v>46</v>
       </c>
+      <c r="G243" t="n">
+        <v>0.05475668983906294</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -6710,6 +7441,9 @@
       <c r="F244" t="n">
         <v>60</v>
       </c>
+      <c r="G244" t="n">
+        <v>0.07142176935529949</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -6736,6 +7470,9 @@
       <c r="F245" t="n">
         <v>61</v>
       </c>
+      <c r="G245" t="n">
+        <v>0.07261213217788783</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -6762,6 +7499,9 @@
       <c r="F246" t="n">
         <v>1</v>
       </c>
+      <c r="G246" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -6788,6 +7528,9 @@
       <c r="F247" t="n">
         <v>1</v>
       </c>
+      <c r="G247" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -6814,6 +7557,9 @@
       <c r="F248" t="n">
         <v>0</v>
       </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -6840,6 +7586,9 @@
       <c r="F249" t="n">
         <v>1</v>
       </c>
+      <c r="G249" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -6866,6 +7615,9 @@
       <c r="F250" t="n">
         <v>0</v>
       </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -6892,6 +7644,9 @@
       <c r="F251" t="n">
         <v>0</v>
       </c>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -6918,6 +7673,9 @@
       <c r="F252" t="n">
         <v>0</v>
       </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -6944,6 +7702,9 @@
       <c r="F253" t="n">
         <v>0</v>
       </c>
+      <c r="G253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -6970,6 +7731,9 @@
       <c r="F254" t="n">
         <v>1566</v>
       </c>
+      <c r="G254" t="n">
+        <v>1.864108180173317</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -6996,6 +7760,9 @@
       <c r="F255" t="n">
         <v>2089</v>
       </c>
+      <c r="G255" t="n">
+        <v>2.486667936387011</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -7022,6 +7789,9 @@
       <c r="F256" t="n">
         <v>2575</v>
       </c>
+      <c r="G256" t="n">
+        <v>3.065184268164937</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -7048,6 +7818,9 @@
       <c r="F257" t="n">
         <v>3085</v>
       </c>
+      <c r="G257" t="n">
+        <v>3.672269307684982</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -7074,6 +7847,9 @@
       <c r="F258" t="n">
         <v>101</v>
       </c>
+      <c r="G258" t="n">
+        <v>0.1202266450814208</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -7100,6 +7876,9 @@
       <c r="F259" t="n">
         <v>164</v>
       </c>
+      <c r="G259" t="n">
+        <v>0.1952195029044853</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -7126,6 +7905,9 @@
       <c r="F260" t="n">
         <v>159</v>
       </c>
+      <c r="G260" t="n">
+        <v>0.1892676887915437</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -7152,6 +7934,9 @@
       <c r="F261" t="n">
         <v>156</v>
       </c>
+      <c r="G261" t="n">
+        <v>0.1856966003237787</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -7178,6 +7963,9 @@
       <c r="F262" t="n">
         <v>13</v>
       </c>
+      <c r="G262" t="n">
+        <v>0.01547471669364823</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -7204,6 +7992,9 @@
       <c r="F263" t="n">
         <v>18</v>
       </c>
+      <c r="G263" t="n">
+        <v>0.02142653080658985</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -7230,6 +8021,9 @@
       <c r="F264" t="n">
         <v>23</v>
       </c>
+      <c r="G264" t="n">
+        <v>0.02737834491953147</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -7256,6 +8050,9 @@
       <c r="F265" t="n">
         <v>32</v>
       </c>
+      <c r="G265" t="n">
+        <v>0.0380916103228264</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -7282,6 +8079,9 @@
       <c r="F266" t="n">
         <v>157</v>
       </c>
+      <c r="G266" t="n">
+        <v>0.186886963146367</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -7308,6 +8108,9 @@
       <c r="F267" t="n">
         <v>237</v>
       </c>
+      <c r="G267" t="n">
+        <v>0.282115988953433</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -7334,6 +8137,9 @@
       <c r="F268" t="n">
         <v>379</v>
       </c>
+      <c r="G268" t="n">
+        <v>0.4511475097609751</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -7360,6 +8166,9 @@
       <c r="F269" t="n">
         <v>448</v>
       </c>
+      <c r="G269" t="n">
+        <v>0.5332825445195696</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -7386,6 +8195,9 @@
       <c r="F270" t="n">
         <v>102</v>
       </c>
+      <c r="G270" t="n">
+        <v>0.1214170079040091</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -7412,6 +8224,9 @@
       <c r="F271" t="n">
         <v>189</v>
       </c>
+      <c r="G271" t="n">
+        <v>0.2249785734691934</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -7438,6 +8253,9 @@
       <c r="F272" t="n">
         <v>279</v>
       </c>
+      <c r="G272" t="n">
+        <v>0.3321112275021426</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -7464,6 +8282,9 @@
       <c r="F273" t="n">
         <v>342</v>
       </c>
+      <c r="G273" t="n">
+        <v>0.4071040853252071</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -7490,6 +8311,9 @@
       <c r="F274" t="n">
         <v>5</v>
       </c>
+      <c r="G274" t="n">
+        <v>0.005951814112941625</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -7516,6 +8340,9 @@
       <c r="F275" t="n">
         <v>9</v>
       </c>
+      <c r="G275" t="n">
+        <v>0.01071326540329492</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -7542,6 +8369,9 @@
       <c r="F276" t="n">
         <v>8</v>
       </c>
+      <c r="G276" t="n">
+        <v>0.009522902580706599</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -7568,6 +8398,9 @@
       <c r="F277" t="n">
         <v>11</v>
       </c>
+      <c r="G277" t="n">
+        <v>0.01309399104847157</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -7594,6 +8427,9 @@
       <c r="F278" t="n">
         <v>0</v>
       </c>
+      <c r="G278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -7620,6 +8456,9 @@
       <c r="F279" t="n">
         <v>0</v>
       </c>
+      <c r="G279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -7646,6 +8485,9 @@
       <c r="F280" t="n">
         <v>0</v>
       </c>
+      <c r="G280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -7672,6 +8514,9 @@
       <c r="F281" t="n">
         <v>0</v>
       </c>
+      <c r="G281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -7698,6 +8543,9 @@
       <c r="F282" t="n">
         <v>456</v>
       </c>
+      <c r="G282" t="n">
+        <v>0.5428054471002762</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -7724,6 +8572,9 @@
       <c r="F283" t="n">
         <v>590</v>
       </c>
+      <c r="G283" t="n">
+        <v>0.7023140653271117</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -7750,6 +8601,9 @@
       <c r="F284" t="n">
         <v>642</v>
       </c>
+      <c r="G284" t="n">
+        <v>0.7642129321017046</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -7776,6 +8630,9 @@
       <c r="F285" t="n">
         <v>622</v>
       </c>
+      <c r="G285" t="n">
+        <v>0.7404056756499381</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -7802,6 +8659,9 @@
       <c r="F286" t="n">
         <v>37</v>
       </c>
+      <c r="G286" t="n">
+        <v>0.04404342443576802</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -7828,6 +8688,9 @@
       <c r="F287" t="n">
         <v>31</v>
       </c>
+      <c r="G287" t="n">
+        <v>0.03690124750023807</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -7854,6 +8717,9 @@
       <c r="F288" t="n">
         <v>32</v>
       </c>
+      <c r="G288" t="n">
+        <v>0.0380916103228264</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -7880,6 +8746,9 @@
       <c r="F289" t="n">
         <v>46</v>
       </c>
+      <c r="G289" t="n">
+        <v>0.05475668983906294</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -7906,6 +8775,9 @@
       <c r="F290" t="n">
         <v>4</v>
       </c>
+      <c r="G290" t="n">
+        <v>0.004761451290353299</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -7932,6 +8804,9 @@
       <c r="F291" t="n">
         <v>7</v>
       </c>
+      <c r="G291" t="n">
+        <v>0.008332539758118275</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -7958,6 +8833,9 @@
       <c r="F292" t="n">
         <v>7</v>
       </c>
+      <c r="G292" t="n">
+        <v>0.008332539758118275</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -7984,6 +8862,9 @@
       <c r="F293" t="n">
         <v>10</v>
       </c>
+      <c r="G293" t="n">
+        <v>0.01190362822588325</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -8010,6 +8891,9 @@
       <c r="F294" t="n">
         <v>12</v>
       </c>
+      <c r="G294" t="n">
+        <v>0.0142843538710599</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -8036,6 +8920,9 @@
       <c r="F295" t="n">
         <v>14</v>
       </c>
+      <c r="G295" t="n">
+        <v>0.01666507951623655</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -8062,6 +8949,9 @@
       <c r="F296" t="n">
         <v>20</v>
       </c>
+      <c r="G296" t="n">
+        <v>0.0238072564517665</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -8088,6 +8978,9 @@
       <c r="F297" t="n">
         <v>27</v>
       </c>
+      <c r="G297" t="n">
+        <v>0.03213979620988477</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -8114,6 +9007,9 @@
       <c r="F298" t="n">
         <v>41</v>
       </c>
+      <c r="G298" t="n">
+        <v>0.04880487572612132</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -8140,6 +9036,9 @@
       <c r="F299" t="n">
         <v>52</v>
       </c>
+      <c r="G299" t="n">
+        <v>0.0618988667745929</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -8166,6 +9065,9 @@
       <c r="F300" t="n">
         <v>55</v>
       </c>
+      <c r="G300" t="n">
+        <v>0.06546995524235787</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -8192,6 +9094,9 @@
       <c r="F301" t="n">
         <v>46</v>
       </c>
+      <c r="G301" t="n">
+        <v>0.05475668983906294</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -8218,6 +9123,9 @@
       <c r="F302" t="n">
         <v>0</v>
       </c>
+      <c r="G302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -8244,6 +9152,9 @@
       <c r="F303" t="n">
         <v>2</v>
       </c>
+      <c r="G303" t="n">
+        <v>0.00238072564517665</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -8270,6 +9181,9 @@
       <c r="F304" t="n">
         <v>1</v>
       </c>
+      <c r="G304" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -8296,6 +9210,9 @@
       <c r="F305" t="n">
         <v>2</v>
       </c>
+      <c r="G305" t="n">
+        <v>0.00238072564517665</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -8322,6 +9239,9 @@
       <c r="F306" t="n">
         <v>0</v>
       </c>
+      <c r="G306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -8348,6 +9268,9 @@
       <c r="F307" t="n">
         <v>0</v>
       </c>
+      <c r="G307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -8374,6 +9297,9 @@
       <c r="F308" t="n">
         <v>0</v>
       </c>
+      <c r="G308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -8400,6 +9326,9 @@
       <c r="F309" t="n">
         <v>0</v>
       </c>
+      <c r="G309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -8426,6 +9355,9 @@
       <c r="F310" t="n">
         <v>1430</v>
       </c>
+      <c r="G310" t="n">
+        <v>1.702218836301305</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -8452,6 +9384,9 @@
       <c r="F311" t="n">
         <v>1974</v>
       </c>
+      <c r="G311" t="n">
+        <v>2.349776211789353</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -8478,6 +9413,9 @@
       <c r="F312" t="n">
         <v>2537</v>
       </c>
+      <c r="G312" t="n">
+        <v>3.01995048090658</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -8504,6 +9442,9 @@
       <c r="F313" t="n">
         <v>2961</v>
       </c>
+      <c r="G313" t="n">
+        <v>3.52466431768403</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -8530,6 +9471,9 @@
       <c r="F314" t="n">
         <v>109</v>
       </c>
+      <c r="G314" t="n">
+        <v>0.1297495476621274</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -8556,6 +9500,9 @@
       <c r="F315" t="n">
         <v>135</v>
       </c>
+      <c r="G315" t="n">
+        <v>0.1606989810494239</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -8582,6 +9529,9 @@
       <c r="F316" t="n">
         <v>171</v>
       </c>
+      <c r="G316" t="n">
+        <v>0.2035520426626036</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -8608,6 +9558,9 @@
       <c r="F317" t="n">
         <v>184</v>
       </c>
+      <c r="G317" t="n">
+        <v>0.2190267593562518</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -8634,6 +9587,9 @@
       <c r="F318" t="n">
         <v>6</v>
       </c>
+      <c r="G318" t="n">
+        <v>0.00714217693552995</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -8660,6 +9616,9 @@
       <c r="F319" t="n">
         <v>18</v>
       </c>
+      <c r="G319" t="n">
+        <v>0.02142653080658985</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -8686,6 +9645,9 @@
       <c r="F320" t="n">
         <v>17</v>
       </c>
+      <c r="G320" t="n">
+        <v>0.02023616798400152</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -8712,6 +9674,9 @@
       <c r="F321" t="n">
         <v>19</v>
       </c>
+      <c r="G321" t="n">
+        <v>0.02261689362917817</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -8738,6 +9703,9 @@
       <c r="F322" t="n">
         <v>154</v>
       </c>
+      <c r="G322" t="n">
+        <v>0.183315874678602</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -8764,6 +9732,9 @@
       <c r="F323" t="n">
         <v>263</v>
       </c>
+      <c r="G323" t="n">
+        <v>0.3130654223407294</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -8790,6 +9761,9 @@
       <c r="F324" t="n">
         <v>387</v>
       </c>
+      <c r="G324" t="n">
+        <v>0.4606704123416817</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -8816,6 +9790,9 @@
       <c r="F325" t="n">
         <v>473</v>
       </c>
+      <c r="G325" t="n">
+        <v>0.5630416150842776</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -8842,6 +9819,9 @@
       <c r="F326" t="n">
         <v>146</v>
       </c>
+      <c r="G326" t="n">
+        <v>0.1737929720978954</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -8868,6 +9848,9 @@
       <c r="F327" t="n">
         <v>230</v>
       </c>
+      <c r="G327" t="n">
+        <v>0.2737834491953147</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -8894,6 +9877,9 @@
       <c r="F328" t="n">
         <v>338</v>
       </c>
+      <c r="G328" t="n">
+        <v>0.4023426340348539</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -8920,6 +9906,9 @@
       <c r="F329" t="n">
         <v>401</v>
       </c>
+      <c r="G329" t="n">
+        <v>0.4773354918579183</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -8946,6 +9935,9 @@
       <c r="F330" t="n">
         <v>7</v>
       </c>
+      <c r="G330" t="n">
+        <v>0.008332539758118275</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -8972,6 +9964,9 @@
       <c r="F331" t="n">
         <v>6</v>
       </c>
+      <c r="G331" t="n">
+        <v>0.00714217693552995</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -8998,6 +9993,9 @@
       <c r="F332" t="n">
         <v>12</v>
       </c>
+      <c r="G332" t="n">
+        <v>0.0142843538710599</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -9024,6 +10022,9 @@
       <c r="F333" t="n">
         <v>8</v>
       </c>
+      <c r="G333" t="n">
+        <v>0.009522902580706599</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -9050,6 +10051,9 @@
       <c r="F334" t="n">
         <v>1</v>
       </c>
+      <c r="G334" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -9076,6 +10080,9 @@
       <c r="F335" t="n">
         <v>1</v>
       </c>
+      <c r="G335" t="n">
+        <v>0.001190362822588325</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -9102,6 +10109,9 @@
       <c r="F336" t="n">
         <v>0</v>
       </c>
+      <c r="G336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -9126,6 +10136,9 @@
         </is>
       </c>
       <c r="F337" t="n">
+        <v>0</v>
+      </c>
+      <c r="G337" t="n">
         <v>0</v>
       </c>
     </row>
